--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Chapter</t>
   </si>
@@ -111,6 +111,42 @@
   </si>
   <si>
     <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Coefficient of Determination(r2), Adjusted r2</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbour</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>Supervised Learning - Classification</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <t>Classification, Logistic, Confusion Matrix, Relevance of Confusion Matrix</t>
+  </si>
+  <si>
+    <t>Support Vector Machine, Maximal Margin Classifier, Soft Margin Classifier,SVM for Classification, Kernel SVMs,SVM for Regression,Hyper-parameters in SVM</t>
+  </si>
+  <si>
+    <t>Decision Tree for Classification and Regression</t>
+  </si>
+  <si>
+    <t>Naive Bayes, Bayes's Theorem</t>
   </si>
 </sst>
 </file>
@@ -452,17 +488,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -542,10 +578,73 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Chapter</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Naive Bayes, Bayes's Theorem</t>
+  </si>
+  <si>
+    <t>UnSupervised Learning</t>
+  </si>
+  <si>
+    <t>K-Means Clustering</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering</t>
+  </si>
+  <si>
+    <t>Apriori Association</t>
+  </si>
+  <si>
+    <t>Eclat - Association</t>
   </si>
 </sst>
 </file>
@@ -488,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,10 +656,43 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Chapter</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Eclat - Association</t>
+  </si>
+  <si>
+    <t>K-Means Clustering, Elbow Method</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering, Dendogram</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,28 +669,43 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Chapter</t>
   </si>
@@ -91,22 +91,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Overfitting, Regularisation, L1 Norm Loss Function,L2 Norm Loss Function, Lasso, Ridge, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cross Validation ,Bias – Variance trade off, Hyper-Parameter</t>
-    </r>
-  </si>
-  <si>
     <t>Data Sets</t>
   </si>
   <si>
@@ -137,18 +121,9 @@
     <t>Model Selection</t>
   </si>
   <si>
-    <t>Classification, Logistic, Confusion Matrix, Relevance of Confusion Matrix</t>
-  </si>
-  <si>
-    <t>Support Vector Machine, Maximal Margin Classifier, Soft Margin Classifier,SVM for Classification, Kernel SVMs,SVM for Regression,Hyper-parameters in SVM</t>
-  </si>
-  <si>
     <t>Decision Tree for Classification and Regression</t>
   </si>
   <si>
-    <t>Naive Bayes, Bayes's Theorem</t>
-  </si>
-  <si>
     <t>UnSupervised Learning</t>
   </si>
   <si>
@@ -164,10 +139,61 @@
     <t>Eclat - Association</t>
   </si>
   <si>
-    <t>K-Means Clustering, Elbow Method</t>
-  </si>
-  <si>
     <t>Hierarchical Clustering, Dendogram</t>
+  </si>
+  <si>
+    <t>K-Means Clustering, Elbow Method, K-Means++</t>
+  </si>
+  <si>
+    <t>Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Deep Learning/Neural Networks</t>
+  </si>
+  <si>
+    <t>UnSupervised Learning, Types of Clustering</t>
+  </si>
+  <si>
+    <t>ANN, Activation function, Gates</t>
+  </si>
+  <si>
+    <t>CNN, Convolution, Max Pooling, Flattening</t>
+  </si>
+  <si>
+    <t>Dimentionality Reduction</t>
+  </si>
+  <si>
+    <t>PCA, LDA, Kernel PCA</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Text Processing</t>
+  </si>
+  <si>
+    <t>Autosummarize Article</t>
+  </si>
+  <si>
+    <t>Classify Article</t>
+  </si>
+  <si>
+    <t>Tokenization, Stopword Removal , N- Grams,Stemming, Word Sense Disambiguation ,Count Vectorizer, TF-IDF(TfidfVectorizer), HashingVectorizer</t>
+  </si>
+  <si>
+    <t>Classification, Logistic, Confusion Matrix, Relevance of Confusion Matrix, Cross-Validation, Hyper-parameter, Grid Search</t>
+  </si>
+  <si>
+    <t>Overfitting, Regularisation, L1 Norm Loss Function,L2 Norm Loss Function, Lasso, Ridge</t>
+  </si>
+  <si>
+    <t>SVM for Classification, Kernel SVMs,SVM for Regression,Hyper-parameters in SVM</t>
+  </si>
+  <si>
+    <t>Naive Bayes, Bayes's Theorem, pkl files</t>
   </si>
 </sst>
 </file>
@@ -211,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,7 +575,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -556,7 +583,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -565,7 +592,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -574,7 +601,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -583,137 +610,214 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Chapter</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Supervised Learning - Classification</t>
-  </si>
-  <si>
-    <t>Model Selection</t>
   </si>
   <si>
     <t>Decision Tree for Classification and Regression</t>
@@ -536,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,6 +544,7 @@
     <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="127.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -615,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -644,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -665,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -683,24 +681,27 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>4</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,20 +732,20 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,31 +758,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s">
-        <v>31</v>
+      <c r="A23" s="3">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>7</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -789,8 +790,8 @@
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
+      <c r="C26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,22 +803,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -54,43 +54,6 @@
     <t>Concepts Covered</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Linear Regression, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Assumptions of Linear Regression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gradient Descent</t>
-    </r>
-  </si>
-  <si>
     <t>Data Sets</t>
   </si>
   <si>
@@ -191,6 +154,9 @@
   </si>
   <si>
     <t>Naive Bayes, Bayes's Theorem, pkl files</t>
+  </si>
+  <si>
+    <t>Linear Regression, Ordinary Least Square(OLS), Assumptions of Linear Regression, Minimizing Cost Function, Gradient Descent</t>
   </si>
 </sst>
 </file>
@@ -536,7 +502,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -613,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,55 +599,55 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,46 +655,46 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,25 +702,25 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,34 +739,34 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
